--- a/Data_preparation/datasets/final_data/Tetra_Tech_Inc.xlsx
+++ b/Data_preparation/datasets/final_data/Tetra_Tech_Inc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,99 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>000660 KS</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>6702 JP</t>
-  </si>
-  <si>
-    <t>STMMI IM</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>BAH</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3690 HK</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
   </si>
 </sst>
 </file>
@@ -745,22 +652,22 @@
         <v>42092</v>
       </c>
       <c r="D2">
-        <v>39959.5931194136</v>
+        <v>4.426473626474878</v>
       </c>
       <c r="E2">
-        <v>40133.51953125</v>
+        <v>5.000070571899414</v>
       </c>
       <c r="F2">
-        <v>41307.52281114572</v>
+        <v>5.0683119285427</v>
       </c>
       <c r="G2">
-        <v>36133.21205901273</v>
+        <v>4.402496874177151</v>
       </c>
       <c r="H2">
-        <v>690412123</v>
+        <v>262773412</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>1482948758</v>
@@ -873,22 +780,22 @@
         <v>42183</v>
       </c>
       <c r="D3">
-        <v>22.20472198577177</v>
+        <v>4.776673203384721</v>
       </c>
       <c r="E3">
-        <v>24.99118041992188</v>
+        <v>4.928372383117676</v>
       </c>
       <c r="F3">
-        <v>24.99118041992188</v>
+        <v>4.989422026115578</v>
       </c>
       <c r="G3">
-        <v>21.11994795200058</v>
+        <v>4.462174828633395</v>
       </c>
       <c r="H3">
-        <v>229140423</v>
+        <v>262773412</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>1568542160</v>
@@ -1001,22 +908,22 @@
         <v>42274</v>
       </c>
       <c r="D4">
-        <v>417.03291015625</v>
+        <v>4.534691456743436</v>
       </c>
       <c r="E4">
-        <v>521.2911376953125</v>
+        <v>4.991129398345947</v>
       </c>
       <c r="F4">
-        <v>525.461466796875</v>
+        <v>5.111733000422605</v>
       </c>
       <c r="G4">
-        <v>414.5307126953125</v>
+        <v>4.415943600955563</v>
       </c>
       <c r="H4">
-        <v>275900103</v>
+        <v>262773412</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>1500383036</v>
@@ -1117,22 +1024,22 @@
         <v>42365</v>
       </c>
       <c r="D5">
-        <v>27181.00816663805</v>
+        <v>4.799152438320951</v>
       </c>
       <c r="E5">
-        <v>24131.431640625</v>
+        <v>4.929412364959717</v>
       </c>
       <c r="F5">
-        <v>27578.77901785714</v>
+        <v>5.061533458257486</v>
       </c>
       <c r="G5">
-        <v>22805.52880322802</v>
+        <v>4.252060391507659</v>
       </c>
       <c r="H5">
-        <v>690412123</v>
+        <v>262773412</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1562446225</v>
@@ -1245,22 +1152,22 @@
         <v>42456</v>
       </c>
       <c r="D6">
-        <v>118.3117101443676</v>
+        <v>5.497273789298037</v>
       </c>
       <c r="E6">
-        <v>127.3061599731445</v>
+        <v>5.487940788269043</v>
       </c>
       <c r="F6">
-        <v>157.0570631796724</v>
+        <v>5.924736006471511</v>
       </c>
       <c r="G6">
-        <v>116.927938984947</v>
+        <v>5.271409467843365</v>
       </c>
       <c r="H6">
-        <v>193969420</v>
+        <v>262773412</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1689550799</v>
@@ -1373,22 +1280,22 @@
         <v>42547</v>
       </c>
       <c r="D7">
-        <v>4.295611700656031</v>
+        <v>5.742373769169701</v>
       </c>
       <c r="E7">
-        <v>6.17116117477417</v>
+        <v>6.165515899658203</v>
       </c>
       <c r="F7">
-        <v>6.640048271879515</v>
+        <v>6.43325642634913</v>
       </c>
       <c r="G7">
-        <v>4.189734190860613</v>
+        <v>5.633780087110474</v>
       </c>
       <c r="H7">
-        <v>1853869000</v>
+        <v>262773412</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1755846328</v>
@@ -1501,22 +1408,22 @@
         <v>42645</v>
       </c>
       <c r="D8">
-        <v>22.53000068664551</v>
+        <v>6.6307820765162</v>
       </c>
       <c r="E8">
-        <v>21.92000007629395</v>
+        <v>7.218390941619873</v>
       </c>
       <c r="F8">
-        <v>22.8799991607666</v>
+        <v>7.36857838513435</v>
       </c>
       <c r="G8">
-        <v>20.55999946594238</v>
+        <v>6.529405194068817</v>
       </c>
       <c r="H8">
-        <v>48253392</v>
+        <v>262773412</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>2037026529</v>
@@ -1617,22 +1524,22 @@
         <v>42736</v>
       </c>
       <c r="D9">
-        <v>2.571208577065158</v>
+        <v>8.164549889794488</v>
       </c>
       <c r="E9">
-        <v>2.688932657241821</v>
+        <v>8.220986366271973</v>
       </c>
       <c r="F9">
-        <v>2.755675695267681</v>
+        <v>8.437328584879983</v>
       </c>
       <c r="G9">
-        <v>2.440924317902166</v>
+        <v>7.713053592766514</v>
       </c>
       <c r="H9">
-        <v>24347000000</v>
+        <v>262773412</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>2462173649</v>
@@ -1745,22 +1652,22 @@
         <v>42827</v>
       </c>
       <c r="D10">
-        <v>31.714543606655</v>
+        <v>7.710943827444272</v>
       </c>
       <c r="E10">
-        <v>29.28191375732422</v>
+        <v>8.285964965820312</v>
       </c>
       <c r="F10">
-        <v>35.41908996993069</v>
+        <v>8.427363326391664</v>
       </c>
       <c r="G10">
-        <v>28.63552904239356</v>
+        <v>7.522411930858428</v>
       </c>
       <c r="H10">
-        <v>212968277</v>
+        <v>262773412</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>2341401615</v>
@@ -1873,22 +1780,22 @@
         <v>42918</v>
       </c>
       <c r="D11">
-        <v>33.58000183105469</v>
+        <v>8.691390080031109</v>
       </c>
       <c r="E11">
-        <v>36.90000152587891</v>
+        <v>8.965357780456543</v>
       </c>
       <c r="F11">
-        <v>37.5099983215332</v>
+        <v>9.031488536387997</v>
       </c>
       <c r="G11">
-        <v>32.84999847412109</v>
+        <v>8.49299961414016</v>
       </c>
       <c r="H11">
-        <v>272490000</v>
+        <v>262773412</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>2614913764</v>
@@ -2001,22 +1908,22 @@
         <v>43009</v>
       </c>
       <c r="D12">
-        <v>140.6199951171875</v>
+        <v>8.816452425038126</v>
       </c>
       <c r="E12">
-        <v>145.1600036621094</v>
+        <v>9.327825546264648</v>
       </c>
       <c r="F12">
-        <v>149</v>
+        <v>9.46987328428188</v>
       </c>
       <c r="G12">
-        <v>140.6199951171875</v>
+        <v>8.72175333094831</v>
       </c>
       <c r="H12">
-        <v>24003656</v>
+        <v>262773412</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>2632470835</v>
@@ -2129,22 +2036,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>21.06097328157131</v>
+        <v>9.166139723934114</v>
       </c>
       <c r="E13">
-        <v>21.5913028717041</v>
+        <v>9.431824684143066</v>
       </c>
       <c r="F13">
-        <v>23.51893322585045</v>
+        <v>9.659555554954901</v>
       </c>
       <c r="G13">
-        <v>20.76122322733137</v>
+        <v>9.014319746671854</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>262773412</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>2683042805</v>
@@ -2257,22 +2164,22 @@
         <v>43191</v>
       </c>
       <c r="D14">
-        <v>48.54999923706055</v>
+        <v>9.347551857379869</v>
       </c>
       <c r="E14">
-        <v>46.59000015258789</v>
+        <v>9.204914093017578</v>
       </c>
       <c r="F14">
-        <v>53.4900016784668</v>
+        <v>10.02270569530771</v>
       </c>
       <c r="G14">
-        <v>44.13000106811523</v>
+        <v>9.111723349380933</v>
       </c>
       <c r="H14">
-        <v>42689006</v>
+        <v>262773412</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>2733899010</v>
@@ -2385,22 +2292,22 @@
         <v>43282</v>
       </c>
       <c r="D15">
-        <v>41.584293711384</v>
+        <v>11.07503381067518</v>
       </c>
       <c r="E15">
-        <v>49.44399642944336</v>
+        <v>11.58970832824707</v>
       </c>
       <c r="F15">
-        <v>50.98970827940524</v>
+        <v>11.86610758936998</v>
       </c>
       <c r="G15">
-        <v>40.9660096861165</v>
+        <v>11.0559722628122</v>
       </c>
       <c r="H15">
-        <v>167899010</v>
+        <v>262773412</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>3253531612</v>
@@ -2513,22 +2420,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>118.8699784743474</v>
+        <v>13.17527122257567</v>
       </c>
       <c r="E16">
-        <v>131.6345367431641</v>
+        <v>12.61007118225098</v>
       </c>
       <c r="F16">
-        <v>137.6179242105138</v>
+        <v>13.37385519278459</v>
       </c>
       <c r="G16">
-        <v>98.52645983921131</v>
+        <v>12.15370973290519</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>262773412</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>3779301272</v>
@@ -2641,22 +2548,22 @@
         <v>43464</v>
       </c>
       <c r="D17">
-        <v>15.67860004230602</v>
+        <v>9.724654976617645</v>
       </c>
       <c r="E17">
-        <v>16.63607215881348</v>
+        <v>10.55879783630371</v>
       </c>
       <c r="F17">
-        <v>17.00842193314866</v>
+        <v>10.62001947287349</v>
       </c>
       <c r="G17">
-        <v>15.6387057406815</v>
+        <v>9.282712285426626</v>
       </c>
       <c r="H17">
-        <v>118401578</v>
+        <v>262773412</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>2836461372</v>
@@ -2769,22 +2676,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1096.205709613841</v>
+        <v>11.49564799398088</v>
       </c>
       <c r="E18">
-        <v>1205.027587890625</v>
+        <v>12.40824508666992</v>
       </c>
       <c r="F18">
-        <v>1294.880514908153</v>
+        <v>12.43316896261018</v>
       </c>
       <c r="G18">
-        <v>1035.305392413072</v>
+        <v>11.27900234703924</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>262773412</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>3290124793</v>
@@ -2897,22 +2804,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>40544.09822043826</v>
+        <v>15.31512588161407</v>
       </c>
       <c r="E19">
-        <v>38831.5703125</v>
+        <v>15.2190465927124</v>
       </c>
       <c r="F19">
-        <v>40715.35101123209</v>
+        <v>16.63334193529208</v>
       </c>
       <c r="G19">
-        <v>37975.30635853087</v>
+        <v>15.03841675989472</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>262773412</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>4309760747</v>
@@ -3025,22 +2932,22 @@
         <v>43737</v>
       </c>
       <c r="D20">
-        <v>375.8331757494683</v>
+        <v>16.68043795644946</v>
       </c>
       <c r="E20">
-        <v>455.8550720214844</v>
+        <v>16.84023475646973</v>
       </c>
       <c r="F20">
-        <v>460.3506841715976</v>
+        <v>17.39278518150533</v>
       </c>
       <c r="G20">
-        <v>359.6489720090606</v>
+        <v>15.63117381569685</v>
       </c>
       <c r="H20">
-        <v>275900103</v>
+        <v>262773412</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>4641855057</v>
@@ -3153,22 +3060,22 @@
         <v>43828</v>
       </c>
       <c r="D21">
-        <v>952.7945362736426</v>
+        <v>16.70263910259202</v>
       </c>
       <c r="E21">
-        <v>1077.576293945312</v>
+        <v>16.50786209106445</v>
       </c>
       <c r="F21">
-        <v>1084.5343845218</v>
+        <v>17.47789045131807</v>
       </c>
       <c r="G21">
-        <v>946.3003184022546</v>
+        <v>16.20123165964487</v>
       </c>
       <c r="H21">
-        <v>1778087515</v>
+        <v>262773412</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>4717479318</v>
@@ -3281,22 +3188,22 @@
         <v>43919</v>
       </c>
       <c r="D22">
-        <v>915.0351038365764</v>
+        <v>13.1208503874493</v>
       </c>
       <c r="E22">
-        <v>987.2894897460938</v>
+        <v>14.54052066802978</v>
       </c>
       <c r="F22">
-        <v>1014.466893830229</v>
+        <v>16.093466651625</v>
       </c>
       <c r="G22">
-        <v>861.7111398400884</v>
+        <v>12.49117279435246</v>
       </c>
       <c r="H22">
-        <v>1778087515</v>
+        <v>262773412</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>3783026114</v>
@@ -3409,22 +3316,22 @@
         <v>44010</v>
       </c>
       <c r="D23">
-        <v>47006.4862775259</v>
+        <v>15.39023354701433</v>
       </c>
       <c r="E23">
-        <v>50967.70703125</v>
+        <v>17.16372108459473</v>
       </c>
       <c r="F23">
-        <v>53168.38522776339</v>
+        <v>17.95172378726301</v>
       </c>
       <c r="G23">
-        <v>45862.13361533894</v>
+        <v>14.51317014818697</v>
       </c>
       <c r="H23">
-        <v>5876745450</v>
+        <v>262773412</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>4025482476</v>
@@ -3537,22 +3444,22 @@
         <v>44101</v>
       </c>
       <c r="D24">
-        <v>67.0365573733727</v>
+        <v>18.57752448188415</v>
       </c>
       <c r="E24">
-        <v>64.00115203857422</v>
+        <v>19.57254028320312</v>
       </c>
       <c r="F24">
-        <v>68.47148302140339</v>
+        <v>21.83217853310516</v>
       </c>
       <c r="G24">
-        <v>63.04453727911305</v>
+        <v>18.48442285262029</v>
       </c>
       <c r="H24">
-        <v>229140423</v>
+        <v>262773412</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>4917847901</v>
@@ -3665,22 +3572,22 @@
         <v>44192</v>
       </c>
       <c r="D25">
-        <v>208.9655558685401</v>
+        <v>22.64934460424917</v>
       </c>
       <c r="E25">
-        <v>266.4632568359375</v>
+        <v>23.61273193359375</v>
       </c>
       <c r="F25">
-        <v>278.9067898351006</v>
+        <v>27.8430965402503</v>
       </c>
       <c r="G25">
-        <v>208.9655558685401</v>
+        <v>21.97730204612043</v>
       </c>
       <c r="H25">
-        <v>193969420</v>
+        <v>262773412</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>6206985315</v>
@@ -3793,22 +3700,22 @@
         <v>44283</v>
       </c>
       <c r="D26">
-        <v>31.63877089792525</v>
+        <v>26.74018856046581</v>
       </c>
       <c r="E26">
-        <v>29.92830848693848</v>
+        <v>24.82072830200196</v>
       </c>
       <c r="F26">
-        <v>32.4027158092907</v>
+        <v>28.15401571739771</v>
       </c>
       <c r="G26">
-        <v>29.40459905784889</v>
+        <v>24.42400207555731</v>
       </c>
       <c r="H26">
-        <v>892033602</v>
+        <v>262773412</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>7235222907</v>
@@ -3921,22 +3828,22 @@
         <v>44374</v>
       </c>
       <c r="D27">
-        <v>587.5604334826718</v>
+        <v>23.95422959132552</v>
       </c>
       <c r="E27">
-        <v>604.75732421875</v>
+        <v>26.00934219360352</v>
       </c>
       <c r="F27">
-        <v>681.1879497124309</v>
+        <v>26.08141663227421</v>
       </c>
       <c r="G27">
-        <v>578.0066052959617</v>
+        <v>23.45749613428396</v>
       </c>
       <c r="H27">
-        <v>80995217</v>
+        <v>262773412</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>6664973040</v>
@@ -4049,22 +3956,22 @@
         <v>44472</v>
       </c>
       <c r="D28">
-        <v>74.35084416868511</v>
+        <v>29.38432136346508</v>
       </c>
       <c r="E28">
-        <v>81.03029632568359</v>
+        <v>34.26935195922852</v>
       </c>
       <c r="F28">
-        <v>81.17023033450081</v>
+        <v>34.37079838255507</v>
       </c>
       <c r="G28">
-        <v>73.18473929077386</v>
+        <v>28.67224472028209</v>
       </c>
       <c r="H28">
-        <v>121301203</v>
+        <v>262773412</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>8211250002</v>
@@ -4177,22 +4084,22 @@
         <v>44563</v>
       </c>
       <c r="D29">
-        <v>382.5833435058594</v>
+        <v>33.19524887145434</v>
       </c>
       <c r="E29">
-        <v>312.239990234375</v>
+        <v>27.18389511108398</v>
       </c>
       <c r="F29">
-        <v>402.6666564941406</v>
+        <v>34.46275033748218</v>
       </c>
       <c r="G29">
-        <v>264.0033264160156</v>
+        <v>24.73091995175899</v>
       </c>
       <c r="H29">
-        <v>3325819167</v>
+        <v>262773412</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>9149765711</v>
@@ -4305,22 +4212,22 @@
         <v>44654</v>
       </c>
       <c r="D30">
-        <v>237.3500061035156</v>
+        <v>32.23957106398169</v>
       </c>
       <c r="E30">
-        <v>206.6999969482422</v>
+        <v>27.23721694946289</v>
       </c>
       <c r="F30">
-        <v>245.8300018310547</v>
+        <v>33.06482445904211</v>
       </c>
       <c r="G30">
-        <v>200.6699981689453</v>
+        <v>27.10228195818738</v>
       </c>
       <c r="H30">
-        <v>217000000</v>
+        <v>262773412</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>9027621364</v>
@@ -4433,22 +4340,22 @@
         <v>44745</v>
       </c>
       <c r="D31">
-        <v>5.400000095367432</v>
+        <v>26.85699558085237</v>
       </c>
       <c r="E31">
-        <v>6.130000114440918</v>
+        <v>30.02897262573243</v>
       </c>
       <c r="F31">
-        <v>6.25</v>
+        <v>30.45216535449418</v>
       </c>
       <c r="G31">
-        <v>5.260000228881836</v>
+        <v>25.75199493972212</v>
       </c>
       <c r="H31">
-        <v>590361084</v>
+        <v>262773412</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>7450708399</v>
@@ -4561,22 +4468,22 @@
         <v>44836</v>
       </c>
       <c r="D32">
-        <v>3.25</v>
+        <v>25.34903057818346</v>
       </c>
       <c r="E32">
-        <v>2.900000095367432</v>
+        <v>27.72341728210449</v>
       </c>
       <c r="F32">
-        <v>3.569999933242798</v>
+        <v>27.88432569387681</v>
       </c>
       <c r="G32">
-        <v>2.799999952316284</v>
+        <v>24.1088551425565</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>262773412</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>6853054439</v>
@@ -4689,22 +4596,22 @@
         <v>44927</v>
       </c>
       <c r="D33">
-        <v>6.579999923706055</v>
+        <v>28.8629536415741</v>
       </c>
       <c r="E33">
-        <v>7.78000020980835</v>
+        <v>30.5628547668457</v>
       </c>
       <c r="F33">
-        <v>7.820000171661377</v>
+        <v>30.79474891451654</v>
       </c>
       <c r="G33">
-        <v>6.090000152587891</v>
+        <v>25.8031304915864</v>
       </c>
       <c r="H33">
-        <v>2274261581</v>
+        <v>262773412</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>7692332152</v>
@@ -4817,22 +4724,22 @@
         <v>45018</v>
       </c>
       <c r="D34">
-        <v>48.39275988647957</v>
+        <v>28.81972983750614</v>
       </c>
       <c r="E34">
-        <v>46.79340362548828</v>
+        <v>27.23525428771973</v>
       </c>
       <c r="F34">
-        <v>48.94223296355696</v>
+        <v>29.09725858462779</v>
       </c>
       <c r="G34">
-        <v>45.97900997260158</v>
+        <v>26.25110835659463</v>
       </c>
       <c r="H34">
-        <v>167899010</v>
+        <v>262773412</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>7819452080</v>
@@ -4945,22 +4852,22 @@
         <v>45109</v>
       </c>
       <c r="D35">
-        <v>436.1446182208199</v>
+        <v>32.0922103700198</v>
       </c>
       <c r="E35">
-        <v>428.3382873535156</v>
+        <v>33.36603927612305</v>
       </c>
       <c r="F35">
-        <v>444.701772488369</v>
+        <v>34.16661943727939</v>
       </c>
       <c r="G35">
-        <v>415.4496223149758</v>
+        <v>31.89108087575755</v>
       </c>
       <c r="H35">
-        <v>142720067</v>
+        <v>262773412</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>8715797184</v>
@@ -5073,22 +4980,22 @@
         <v>45200</v>
       </c>
       <c r="D36">
-        <v>16.03000068664551</v>
+        <v>29.86959918886632</v>
       </c>
       <c r="E36">
-        <v>14.80000019073486</v>
+        <v>29.80639457702637</v>
       </c>
       <c r="F36">
-        <v>18.44000053405762</v>
+        <v>33.05545255943224</v>
       </c>
       <c r="G36">
-        <v>14.55000019073486</v>
+        <v>28.31321175742861</v>
       </c>
       <c r="H36">
-        <v>2274261581</v>
+        <v>262773412</v>
       </c>
       <c r="I36" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>8094929024</v>
@@ -5201,22 +5108,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>124.5980016318655</v>
+        <v>32.73694332215805</v>
       </c>
       <c r="E37">
-        <v>132.1493988037109</v>
+        <v>31.29278182983398</v>
       </c>
       <c r="F37">
-        <v>136.1187273141222</v>
+        <v>33.33241342256853</v>
       </c>
       <c r="G37">
-        <v>122.5649354352075</v>
+        <v>31.26508572159684</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>262773412</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>8888633219</v>
@@ -5329,22 +5236,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4156.728619089413</v>
+        <v>36.57470622286429</v>
       </c>
       <c r="E38">
-        <v>4553.76318359375</v>
+        <v>38.57768630981445</v>
       </c>
       <c r="F38">
-        <v>5096.40944657156</v>
+        <v>38.92637651653513</v>
       </c>
       <c r="G38">
-        <v>3750.957352676668</v>
+        <v>36.16063872796724</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>262773412</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>9875775235</v>
@@ -5457,22 +5364,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>2890.935410112718</v>
+        <v>40.66833760930426</v>
       </c>
       <c r="E39">
-        <v>2691.009033203125</v>
+        <v>42.30300521850586</v>
       </c>
       <c r="F39">
-        <v>3014.889763796666</v>
+        <v>42.88823266716404</v>
       </c>
       <c r="G39">
-        <v>2519.072349060875</v>
+        <v>39.10905542317585</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>262773412</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>10939121770</v>
@@ -5585,22 +5492,22 @@
         <v>45564</v>
       </c>
       <c r="D40">
-        <v>149.5</v>
+        <v>46.76884174008141</v>
       </c>
       <c r="E40">
-        <v>149.5</v>
+        <v>48.54663467407227</v>
       </c>
       <c r="F40">
-        <v>152.4900054931641</v>
+        <v>50.34428787206557</v>
       </c>
       <c r="G40">
-        <v>143.1900024414062</v>
+        <v>46.11334315626162</v>
       </c>
       <c r="H40">
-        <v>168262866</v>
+        <v>262773412</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>12419519816</v>
@@ -5713,22 +5620,22 @@
         <v>45655</v>
       </c>
       <c r="D41">
-        <v>50.08000183105469</v>
+        <v>39.8820670207078</v>
       </c>
       <c r="E41">
-        <v>57.84000015258789</v>
+        <v>36.60000228881836</v>
       </c>
       <c r="F41">
-        <v>59.43999862670898</v>
+        <v>42.74641614761383</v>
       </c>
       <c r="G41">
-        <v>46.88000106811523</v>
+        <v>30.92103533518907</v>
       </c>
       <c r="H41">
-        <v>795535712</v>
+        <v>262773412</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>10664129009</v>
@@ -5832,22 +5739,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>157.6999969482422</v>
+        <v>29.14344817806013</v>
       </c>
       <c r="E42">
-        <v>130.3000030517578</v>
+        <v>31.07638168334961</v>
       </c>
       <c r="F42">
-        <v>160.8000030517578</v>
+        <v>31.48488798441175</v>
       </c>
       <c r="G42">
-        <v>125</v>
+        <v>27.1706613728722</v>
       </c>
       <c r="H42">
-        <v>5527428787</v>
+        <v>262773412</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>7813251936</v>
@@ -5960,22 +5867,22 @@
         <v>45837</v>
       </c>
       <c r="D43">
-        <v>4189.703654683593</v>
+        <v>35.88483951065574</v>
       </c>
       <c r="E43">
-        <v>4384.04052734375</v>
+        <v>36.67340850830078</v>
       </c>
       <c r="F43">
-        <v>4409.952110365104</v>
+        <v>38.58992658037779</v>
       </c>
       <c r="G43">
-        <v>3767.145531566123</v>
+        <v>35.57540003102994</v>
       </c>
       <c r="H43">
-        <v>1333460157</v>
+        <v>262773412</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>9391233341</v>
